--- a/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
+++ b/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Minutes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Documentation\4. Sprints and Project Management\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E807F-6D62-43CE-8384-943F4155BDE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB7216-328B-4AD1-9FFB-F576C6A4F957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="15" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Date:</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>If we have enough time next week (after writing documentation) we will integrate POST functions</t>
+  </si>
+  <si>
+    <t>https://www.atlassian.com/agile/kanban/kanban-vs-scrum</t>
+  </si>
+  <si>
+    <t>https://www.atlassian.com/agile/kanban#:~:text=Kanban%20is%20a%20popular%20framework,of%20work%20at%20any%20time</t>
+  </si>
+  <si>
+    <t>SCRUM/Kanban methodology</t>
   </si>
 </sst>
 </file>
@@ -718,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F359-C01B-48A0-A744-C78F9F5794EF}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +894,19 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
+++ b/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Documentation\4. Sprints and Project Management\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB7216-328B-4AD1-9FFB-F576C6A4F957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8291039-1B80-4F20-8B28-D01B9C359632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
   </bookViews>
   <sheets>
     <sheet name="0405" sheetId="1" r:id="rId1"/>
     <sheet name="0505" sheetId="2" r:id="rId2"/>
+    <sheet name="0705" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>Date:</t>
   </si>
@@ -167,6 +168,42 @@
   </si>
   <si>
     <t>SCRUM/Kanban methodology</t>
+  </si>
+  <si>
+    <t>Everyone started</t>
+  </si>
+  <si>
+    <t>Wenda and Stanni have transcripts, working on over the weekend</t>
+  </si>
+  <si>
+    <t>Finish documentation</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Adding instruction box pop up</t>
+  </si>
+  <si>
+    <t>Format info box &amp; put percentage</t>
+  </si>
+  <si>
+    <t>Put in link to the source of the data (contextualise data - explaining what the data is showing - percentage of who?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make sure we're doing integration testing by pulling data service through globe component by testing outcome</t>
+  </si>
+  <si>
+    <t>test the data service to make sure it's giving the right response</t>
+  </si>
+  <si>
+    <t>testing edge cases, adapting functions for edge not core to test functionality in more detail</t>
+  </si>
+  <si>
+    <t>Emily</t>
   </si>
 </sst>
 </file>
@@ -729,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F359-C01B-48A0-A744-C78F9F5794EF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,4 +947,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B6F62-8589-49AF-A93B-6C86425C0516}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
+++ b/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Documentation\4. Sprints and Project Management\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8291039-1B80-4F20-8B28-D01B9C359632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F144AF9-4583-453D-A7EB-7CF5770CF2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
   </bookViews>
   <sheets>
     <sheet name="0405" sheetId="1" r:id="rId1"/>
     <sheet name="0505" sheetId="2" r:id="rId2"/>
     <sheet name="0705" sheetId="3" r:id="rId3"/>
+    <sheet name="1105" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
   <si>
     <t>Date:</t>
   </si>
@@ -204,6 +205,39 @@
   </si>
   <si>
     <t>Emily</t>
+  </si>
+  <si>
+    <t>Everyone started, nearly all sections complete</t>
+  </si>
+  <si>
+    <t>One feedback session completed</t>
+  </si>
+  <si>
+    <t>Wenda completed, Stanni finishing tonight</t>
+  </si>
+  <si>
+    <t>Final feedback session</t>
+  </si>
+  <si>
+    <t>Tonight</t>
+  </si>
+  <si>
+    <t>MVP done by Wednesday, completely finished by Thursday so that we can format and review hyperlinks</t>
+  </si>
+  <si>
+    <t>Stanni to help Wenda with documentation if necessary</t>
+  </si>
+  <si>
+    <t>Stanni</t>
+  </si>
+  <si>
+    <t>If we have time, lit analysis on serious play</t>
+  </si>
+  <si>
+    <t>Final thematic analysis</t>
+  </si>
+  <si>
+    <t>Wenda, or Stanni</t>
   </si>
 </sst>
 </file>
@@ -953,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B6F62-8589-49AF-A93B-6C86425C0516}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,4 +1216,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F86CD-6699-4C99-A743-7B6E133EC237}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
+++ b/Documentation/4. Sprints and Project Management/Minutes/May Minutes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Documentation\4. Sprints and Project Management\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F144AF9-4583-453D-A7EB-7CF5770CF2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219D640-D043-4DA4-853F-C39A9D2160EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
   </bookViews>
   <sheets>
     <sheet name="0405" sheetId="1" r:id="rId1"/>
     <sheet name="0505" sheetId="2" r:id="rId2"/>
     <sheet name="0705" sheetId="3" r:id="rId3"/>
     <sheet name="1105" sheetId="4" r:id="rId4"/>
+    <sheet name="1305" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
   <si>
     <t>Date:</t>
   </si>
@@ -238,6 +239,21 @@
   </si>
   <si>
     <t>Wenda, or Stanni</t>
+  </si>
+  <si>
+    <t>Finish writing documentation</t>
+  </si>
+  <si>
+    <t>Finalising</t>
+  </si>
+  <si>
+    <t>Completed, write up being finalised</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>All documentation finished tonight, hyperlinks completed in the morning</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F86CD-6699-4C99-A743-7B6E133EC237}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,4 +1466,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231CF13F-A268-4684-9CDA-AA8B128289E5}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>